--- a/modified_tables/table_18.xlsx
+++ b/modified_tables/table_18.xlsx
@@ -11,6 +11,41 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Total participants</t>
+  </si>
+  <si>
+    <t>1,061</t>
+  </si>
+  <si>
+    <t>Total for company sports activities</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>Total for sickness/injury prevention courses</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>Average health rate for the year (%)</t>
+  </si>
+  <si>
+    <t>96.5</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,55 +401,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>186</v>
+        <v>2019</v>
       </c>
       <c r="B2">
-        <v>101</v>
+        <v>784</v>
       </c>
       <c r="C2">
-        <v>85</v>
+        <v>554</v>
+      </c>
+      <c r="D2">
+        <v>230</v>
       </c>
       <c r="E2">
-        <v>57</v>
-      </c>
-      <c r="F2">
-        <v>31</v>
-      </c>
-      <c r="G2">
-        <v>26</v>
-      </c>
-      <c r="H2">
-        <v>144</v>
-      </c>
-      <c r="I2">
-        <v>97</v>
-      </c>
-      <c r="J2">
-        <v>47</v>
-      </c>
-      <c r="K2">
-        <v>35</v>
-      </c>
-      <c r="L2">
-        <v>23</v>
-      </c>
-      <c r="M2">
-        <v>12</v>
+        <v>95.3</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B3">
+        <v>991</v>
+      </c>
+      <c r="C3">
+        <v>683</v>
+      </c>
+      <c r="D3">
+        <v>308</v>
+      </c>
+      <c r="E3">
+        <v>95.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
